--- a/_work/fixed/RankChanges.xlsx
+++ b/_work/fixed/RankChanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothydement/Google Drive/NCSU/3-Fall-2018/CSC-591-023/CodeSmellsClassifiers/_work/fixed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1071335-E959-0C43-963D-658FE8196E5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE67849-A6DB-0F4B-9ACE-3881260921B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{D4ECBBEA-6842-404D-AFA5-AFC659FA632A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D4ECBBEA-6842-404D-AFA5-AFC659FA632A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,12 +407,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -768,17 +762,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -795,7 +789,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -804,7 +798,7 @@
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -815,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
@@ -824,7 +818,7 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="6">
@@ -835,7 +829,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6">
@@ -844,7 +838,7 @@
       <c r="C5" s="8">
         <v>-1</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="9">
@@ -855,7 +849,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10">
@@ -864,7 +858,7 @@
       <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="12">
@@ -875,7 +869,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -884,7 +878,7 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -895,7 +889,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="14">
@@ -904,7 +898,7 @@
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="15">
@@ -915,7 +909,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="15">
@@ -924,7 +918,7 @@
       <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="14">
@@ -935,7 +929,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="18">
@@ -944,7 +938,7 @@
       <c r="C10" s="19">
         <v>2</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="18">
@@ -955,7 +949,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -964,7 +958,7 @@
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -975,7 +969,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="15">
@@ -984,7 +978,7 @@
       <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="6">
@@ -995,7 +989,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="14">
@@ -1004,7 +998,7 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="15">
@@ -1015,7 +1009,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="22">
@@ -1024,7 +1018,7 @@
       <c r="C14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="30" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="24">
@@ -1035,7 +1029,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1044,7 +1038,7 @@
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1055,7 +1049,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15">
@@ -1064,7 +1058,7 @@
       <c r="C16" s="21">
         <v>1</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="14">
@@ -1075,7 +1069,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="15">
@@ -1084,7 +1078,7 @@
       <c r="C17" s="17">
         <v>2</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="25">
@@ -1095,7 +1089,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="18">
@@ -1104,7 +1098,7 @@
       <c r="C18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="22">
@@ -1116,17 +1110,17 @@
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -1143,7 +1137,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1152,7 +1146,7 @@
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="28" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1163,7 +1157,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="14">
@@ -1172,7 +1166,7 @@
       <c r="C23" s="21">
         <v>1</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="29" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="6">
@@ -1183,7 +1177,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="9">
@@ -1192,7 +1186,7 @@
       <c r="C24" s="26">
         <v>-2</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="14">
@@ -1203,7 +1197,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="10">
@@ -1212,7 +1206,7 @@
       <c r="C25" s="23">
         <v>1</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="30" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="24">
@@ -1223,7 +1217,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1232,7 +1226,7 @@
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1243,7 +1237,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="15">
@@ -1252,7 +1246,7 @@
       <c r="C27" s="21">
         <v>1</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="29" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="6">
@@ -1263,7 +1257,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="14">
@@ -1272,7 +1266,7 @@
       <c r="C28" s="7">
         <v>0</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="15">
@@ -1283,7 +1277,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="22">
@@ -1292,7 +1286,7 @@
       <c r="C29" s="23">
         <v>1</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="24">
@@ -1303,7 +1297,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1312,7 +1306,7 @@
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="28" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1323,7 +1317,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="6">
@@ -1332,7 +1326,7 @@
       <c r="C31" s="7">
         <v>0</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="6">
@@ -1343,7 +1337,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="14">
@@ -1352,7 +1346,7 @@
       <c r="C32" s="17">
         <v>2</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="15">
@@ -1363,27 +1357,27 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="28">
-        <v>0</v>
-      </c>
-      <c r="C33" s="29">
-        <v>0</v>
-      </c>
-      <c r="E33" s="32" t="s">
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="28">
-        <v>0</v>
-      </c>
-      <c r="G33" s="29">
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1392,7 +1386,7 @@
       <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1403,7 +1397,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="6">
@@ -1412,7 +1406,7 @@
       <c r="C35" s="21">
         <v>1</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="6">
@@ -1423,7 +1417,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="14">
@@ -1432,7 +1426,7 @@
       <c r="C36" s="21">
         <v>1</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="15">
@@ -1443,7 +1437,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="10">
@@ -1452,7 +1446,7 @@
       <c r="C37" s="11">
         <v>0</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="10">
